--- a/biology/Botanique/Licania_alba/Licania_alba.xlsx
+++ b/biology/Botanique/Licania_alba/Licania_alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Licania alba est une espèce de plantes à fleurs de la famille des Chrysobalanaceae.
-C'est un arbre sud-américain. On le connaît en Guyane sous les noms de Gaulette blanche grande feuilles, Gaulette, Gaulette azon, Gris-gris[3] (Créole), Weti koko (Nenge tongo), Korokoro (Kali'na), Kwep (Palikur, nom s'appliquant aussi à Licania sprucei), Ɨwatã'ɨy (Wayãpi), ou encore Caraipé au Brésil, Kautaballi[4], Counter au Guyana[5], Hierro, Hierrito au Venezuela[6].
+C'est un arbre sud-américain. On le connaît en Guyane sous les noms de Gaulette blanche grande feuilles, Gaulette, Gaulette azon, Gris-gris (Créole), Weti koko (Nenge tongo), Korokoro (Kali'na), Kwep (Palikur, nom s'appliquant aussi à Licania sprucei), Ɨwatã'ɨy (Wayãpi), ou encore Caraipé au Brésil, Kautaballi, Counter au Guyana, Hierro, Hierrito au Venezuela.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Licania alba est un arbre atteignant 35 m de haut, aux jeunes rameaux pulvérulents, devenant glabres avec l'âge.
 Les feuilles sont simples, alternes.
@@ -533,7 +547,7 @@
 L'ovaire est inséré à la base du réceptacle, villeux, avec un style velu de même taille que les filets.
 Le fruit est piriforme, long jusqu'à 9 cm, comprenant un stipe long de 8-15 mm.
 L'épicarpe (ou exocarpe) est pulvérulent, de couleur brun sale ferrugineuse.
-Le mésocarpe est fin, très dur, peu hirsute à l'intérieur[4],[6],[3].
+Le mésocarpe est fin, très dur, peu hirsute à l'intérieur.
 </t>
         </is>
       </c>
@@ -562,9 +576,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Licania alba est présent du Venezuela, au Brésil amazonien, en passant par le Guyana, le Suriname, et la Guyane[6],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Licania alba est présent du Venezuela, au Brésil amazonien, en passant par le Guyana, le Suriname, et la Guyane,.
 </t>
         </is>
       </c>
@@ -593,12 +609,14 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Licania alba pousse dans les forêts de terre ferme (non inondées)[3],[4], de basse altitude, sempervirentes, au Venezuela autour de 50–200 m [6].
-Il fleurit en août, septembre, novembre, et fleurit en février/mai[3].
-Les graines de Licania alba sont disséminées par des rongeurs, notamment par l'acouchi[7],[8],[9].
-Licania alba a été étudié dans le cadre de l'écologie forestière[10], ainsi que pour les préférences pédologiques[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Licania alba pousse dans les forêts de terre ferme (non inondées) de basse altitude, sempervirentes, au Venezuela autour de 50–200 m .
+Il fleurit en août, septembre, novembre, et fleurit en février/mai.
+Les graines de Licania alba sont disséminées par des rongeurs, notamment par l'acouchi.
+Licania alba a été étudié dans le cadre de l'écologie forestière, ainsi que pour les préférences pédologiques.
 </t>
         </is>
       </c>
@@ -627,12 +645,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Guyana, la décoction d'écorce interne de Licania alba est employée pour soigner les morsures de certains serpents, et la poudre d'écorce externe sert à soigner les douleurs et les ulcères[5].
-Le bois de Licania alba est bon comme bois de chauffe, mais trop dur et riche en silice pour être facilement utilisé dans l'industrie[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Guyana, la décoction d'écorce interne de Licania alba est employée pour soigner les morsures de certains serpents, et la poudre d'écorce externe sert à soigner les douleurs et les ulcères.
+Le bois de Licania alba est bon comme bois de chauffe, mais trop dur et riche en silice pour être facilement utilisé dans l'industrie.
 En Guyane, les Palikur emploient les cendres de Licania alba (et d'autres Licania) pour tempérer l'argile dans la poterie.
-Ils consomment aussi la décoction d'inflorescences de Licania alba (une tasse trois fois par jour) pour soigner les toux chroniques[12].
+Ils consomment aussi la décoction d'inflorescences de Licania alba (une tasse trois fois par jour) pour soigner les toux chroniques.
 </t>
         </is>
       </c>
@@ -661,9 +681,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[13] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « CARAIPA (longifolia) foliis ovato-oblongis, acutis, ſubtùs incanis. (Tabula 223. Fig. 2.) 
 LE CARAIPÉ à longue feuille. (Planches 223. fig.2)
 Cette eſpèce, qui a le même port que l'arbre précédent, en diffère pouſſant par ſes feuilles plus grandes, qui ont huit pouces &amp; longueur, ſur trois de largeur. le tronc eſt plus gros &amp; plus élevé. 
